--- a/References/Reference Papers.xlsx
+++ b/References/Reference Papers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -123,12 +123,18 @@
   <si>
     <t>https://github.com/ybayle/awesome-deep-learning-music</t>
   </si>
+  <si>
+    <t>Audio features dedicated to the detection and tracking of arousal and valence in musical compositions</t>
+  </si>
+  <si>
+    <t>tandfonline.com/doi/pdf/10.1080/24751839.2018.1463749?needAccess=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -188,19 +194,14 @@
       <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEDEDE"/>
-        <bgColor rgb="FFDEDEDE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -247,7 +248,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -256,24 +257,27 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,15 +920,6 @@
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1062,9 +1057,15 @@
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1090,9 +1091,15 @@
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -28628,8 +28635,9 @@
     <hyperlink r:id="rId12" ref="K9"/>
     <hyperlink r:id="rId13" ref="D10"/>
     <hyperlink r:id="rId14" ref="D11"/>
-    <hyperlink r:id="rId15" ref="D12"/>
+    <hyperlink r:id="rId15" ref="D17"/>
+    <hyperlink r:id="rId16" ref="D18"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>